--- a/topo/NodeList_copy.xlsx
+++ b/topo/NodeList_copy.xlsx
@@ -16,10 +16,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,7 +341,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F3" sqref="F3:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -394,7 +390,7 @@
         <v>88</v>
       </c>
       <c r="D3">
-        <v>0.56000000000000005</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -408,7 +404,7 @@
         <v>73</v>
       </c>
       <c r="D4">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -422,7 +418,7 @@
         <v>88</v>
       </c>
       <c r="D5">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -436,7 +432,7 @@
         <v>87</v>
       </c>
       <c r="D6">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -450,7 +446,7 @@
         <v>90</v>
       </c>
       <c r="D7">
-        <v>0.68</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -464,7 +460,7 @@
         <v>77</v>
       </c>
       <c r="D8">
-        <v>0.59</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -478,7 +474,7 @@
         <v>66</v>
       </c>
       <c r="D9">
-        <v>0.62</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -492,7 +488,7 @@
         <v>73</v>
       </c>
       <c r="D10">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -506,7 +502,7 @@
         <v>93</v>
       </c>
       <c r="D11">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -520,7 +516,7 @@
         <v>72</v>
       </c>
       <c r="D12">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -534,7 +530,7 @@
         <v>91</v>
       </c>
       <c r="D13">
-        <v>0.57999999999999996</v>
+        <v>0.94</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -548,7 +544,7 @@
         <v>65</v>
       </c>
       <c r="D14">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -562,7 +558,7 @@
         <v>93</v>
       </c>
       <c r="D15">
-        <v>0.56999999999999995</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -576,7 +572,7 @@
         <v>86</v>
       </c>
       <c r="D16">
-        <v>0.51</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -590,7 +586,7 @@
         <v>72</v>
       </c>
       <c r="D17">
-        <v>0.53</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -618,7 +614,7 @@
         <v>73</v>
       </c>
       <c r="D19">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -632,7 +628,7 @@
         <v>93</v>
       </c>
       <c r="D20">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -646,7 +642,7 @@
         <v>83</v>
       </c>
       <c r="D21">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -660,7 +656,7 @@
         <v>68</v>
       </c>
       <c r="D22">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -674,7 +670,7 @@
         <v>84</v>
       </c>
       <c r="D23">
-        <v>0.51</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -688,7 +684,7 @@
         <v>100</v>
       </c>
       <c r="D24">
-        <v>0.7</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -702,7 +698,7 @@
         <v>85</v>
       </c>
       <c r="D25">
-        <v>0.56999999999999995</v>
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
